--- a/population-projection/src/test/resources/rtss/data/asfr/asfr-bounce-193x.xlsx
+++ b/population-projection/src/test/resources/rtss/data/asfr/asfr-bounce-193x.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\population-projection\src\test\resources\rtss\data\asfr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\population-projection\src\test\resources\rtss\data\asfr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6912A4F7-3B3F-4CF5-AC1A-F53FDFAC16A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17A8AF-5C67-4930-B451-DE1DD3DEED86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73440" yWindow="510" windowWidth="32670" windowHeight="20235" activeTab="1" xr2:uid="{402E3A3D-7E4C-4505-AB84-165B4DC3B336}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="3" xr2:uid="{402E3A3D-7E4C-4505-AB84-165B4DC3B336}"/>
   </bookViews>
   <sheets>
     <sheet name="Comment" sheetId="2" r:id="rId1"/>
     <sheet name="Данные" sheetId="1" r:id="rId2"/>
     <sheet name="Оба графика" sheetId="4" r:id="rId3"/>
+    <sheet name="АДХ" sheetId="5" r:id="rId4"/>
+    <sheet name="1960" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>age</t>
   </si>
@@ -99,15 +96,52 @@
   <si>
     <t>Значения дезагрегированы из 5-летних возрастных групп в годовые по возрастному шагу значения модулем ShowASFRInterpolatedByAge.</t>
   </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>1937-1938</t>
+  </si>
+  <si>
+    <t>% 1937-1938</t>
+  </si>
+  <si>
+    <t>% 1936-1939</t>
+  </si>
+  <si>
+    <t>возраст</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +155,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -158,6 +199,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -276,7 +332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -657,7 +713,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543969519"/>
@@ -721,7 +777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="543966639"/>
@@ -762,7 +818,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1522,7 +1578,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1560,7 +1616,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528577360"/>
@@ -1624,7 +1680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="528560560"/>
@@ -1676,7 +1732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1706,7 +1762,1801 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>АДХ!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% 1937-1938</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>АДХ!$O$15:$O$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>АДХ!$P$15:$P$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>89.050470487596257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.050470487596257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.050470487596257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.050470487596257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.050470487596257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.907935611409201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.907935611409201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.907935611409201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.907935611409201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.907935611409201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.855731225296452</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.855731225296452</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.855731225296452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.855731225296452</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82.855731225296452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.837023510614017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.837023510614017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.837023510614017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.837023510614017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68.837023510614017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.754635352286769</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78.754635352286769</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78.754635352286769</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.754635352286769</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.754635352286769</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74.7654558575896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74.7654558575896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.7654558575896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74.7654558575896</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.7654558575896</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53.008177570093459</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53.008177570093459</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53.008177570093459</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53.008177570093459</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53.008177570093459</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91.428571428571416</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.428571428571416</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>91.428571428571416</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91.428571428571416</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91.428571428571416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF77-494F-98CD-253C902474C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>АДХ!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% 1936-1939</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>АДХ!$O$15:$O$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>АДХ!$Q$15:$Q$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>94.50384944396923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.50384944396923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.50384944396923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.50384944396923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.50384944396923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.620446201637947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.620446201637947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.620446201637947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.620446201637947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.620446201637947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.944334650856405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.944334650856405</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.944334650856405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.944334650856405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.944334650856405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.935288746861445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.935288746861445</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.935288746861445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.935288746861445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.935288746861445</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.935259579728054</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76.935259579728054</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.935259579728054</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76.935259579728054</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.935259579728054</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.177772432042332</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73.177772432042332</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73.177772432042332</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73.177772432042332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.177772432042332</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53.709112149532714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53.709112149532714</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53.709112149532714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53.709112149532714</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53.709112149532714</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.476190476190467</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85.476190476190467</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85.476190476190467</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85.476190476190467</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85.476190476190467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF77-494F-98CD-253C902474C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833136384"/>
+        <c:axId val="832749264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833136384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+                  <a:t>возраст</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1400" b="1" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="832749264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="832749264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833136384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1960'!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% 1937-1938</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1960'!$O$15:$O$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1960'!$P$15:$P$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>94.188861985472158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.188861985472158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.188861985472158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.188861985472158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.188861985472158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.250198570293875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.250198570293875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.250198570293875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.250198570293875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.250198570293875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.385250128932427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.385250128932427</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.385250128932427</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.385250128932427</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.385250128932427</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.50882825040128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.50882825040128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.50882825040128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71.50882825040128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>71.50882825040128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.415200354872113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.415200354872113</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.415200354872113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.415200354872113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.415200354872113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>78.62046058458813</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78.62046058458813</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78.62046058458813</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78.62046058458813</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78.62046058458813</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53.034300791556731</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53.034300791556731</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53.034300791556731</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53.034300791556731</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>53.034300791556731</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>124.46808510638297</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>124.46808510638297</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>124.46808510638297</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>124.46808510638297</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>124.46808510638297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67F6-4787-AB26-12F7E152107E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1960'!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% 1936-1939</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1960'!$O$15:$O$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1960'!$Q$15:$Q$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>102.66343825665858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.66343825665858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.66343825665858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.66343825665858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.66343825665858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.694201747418575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.694201747418575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.694201747418575</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.694201747418575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.694201747418575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.824651882413605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.824651882413605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.824651882413605</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.824651882413605</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.824651882413605</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.072231139646874</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.072231139646874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.072231139646874</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.072231139646874</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.072231139646874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.348661836463094</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.348661836463094</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.348661836463094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.348661836463094</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.348661836463094</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.94309123117803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.94309123117803</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>76.94309123117803</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.94309123117803</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76.94309123117803</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.934036939313991</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54.934036939313991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54.934036939313991</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.934036939313991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54.934036939313991</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>107.71276595744681</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>107.71276595744681</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107.71276595744681</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>107.71276595744681</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>107.71276595744681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67F6-4787-AB26-12F7E152107E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="709225280"/>
+        <c:axId val="709224296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="709225280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0"/>
+                  <a:t>возраст</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1400" b="1" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709224296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="709224296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="709225280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1758,6 +3608,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2829,6 +4759,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2891,6 +5853,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110A3C84-EC3B-8CBF-BEE7-BAF1FB12FA0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA179B0-D1DC-4E85-A55C-5FABAB340961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C38105-CF23-43D8-8A32-C956357F5E6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3234,64 +6278,64 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" ht="15">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" ht="15">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3305,18 +6349,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40444307-30B1-4482-842C-0255CC0D97D3}">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3353,7 +6397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>15</v>
       </c>
@@ -3393,7 +6437,7 @@
         <v>103.68226314244355</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>16</v>
       </c>
@@ -3433,7 +6477,7 @@
         <v>101.30706729481255</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>17</v>
       </c>
@@ -3473,7 +6517,7 @@
         <v>97.698094637819409</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>18</v>
       </c>
@@ -3513,7 +6557,7 @@
         <v>93.746969456281434</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>19</v>
       </c>
@@ -3553,7 +6597,7 @@
         <v>90.162875305688459</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>20</v>
       </c>
@@ -3593,7 +6637,7 @@
         <v>85.666025838237971</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>21</v>
       </c>
@@ -3633,7 +6677,7 @@
         <v>84.260722730412468</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>22</v>
       </c>
@@ -3673,7 +6717,7 @@
         <v>83.498061510576676</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>23</v>
       </c>
@@ -3713,7 +6757,7 @@
         <v>83.061028030451098</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>24</v>
       </c>
@@ -3753,7 +6797,7 @@
         <v>82.789447734064581</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>25</v>
       </c>
@@ -3793,7 +6837,7 @@
         <v>82.901851804406505</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>26</v>
       </c>
@@ -3833,7 +6877,7 @@
         <v>81.822704824379514</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>27</v>
       </c>
@@ -3873,7 +6917,7 @@
         <v>79.850490712401424</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>28</v>
       </c>
@@ -3913,7 +6957,7 @@
         <v>76.978536215842809</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>29</v>
       </c>
@@ -3953,7 +6997,7 @@
         <v>73.303501913364556</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>30</v>
       </c>
@@ -3993,7 +7037,7 @@
         <v>68.188601749629882</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>31</v>
       </c>
@@ -4033,7 +7077,7 @@
         <v>65.435154358951408</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>32</v>
       </c>
@@ -4073,7 +7117,7 @@
         <v>64.258420596154323</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>33</v>
       </c>
@@ -4113,7 +7157,7 @@
         <v>64.757008108427272</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>34</v>
       </c>
@@ -4153,7 +7197,7 @@
         <v>67.014583708380883</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>35</v>
       </c>
@@ -4193,7 +7237,7 @@
         <v>72.194048325141694</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>36</v>
       </c>
@@ -4233,7 +7277,7 @@
         <v>75.791756261044782</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>37</v>
       </c>
@@ -4273,7 +7317,7 @@
         <v>78.442118197939905</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>38</v>
       </c>
@@ -4313,7 +7357,7 @@
         <v>79.85685383043122</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>39</v>
       </c>
@@ -4353,7 +7397,7 @@
         <v>79.863034267664787</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>40</v>
       </c>
@@ -4393,7 +7437,7 @@
         <v>77.842962643346283</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>41</v>
       </c>
@@ -4433,7 +7477,7 @@
         <v>75.811942996265998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>42</v>
       </c>
@@ -4473,7 +7517,7 @@
         <v>73.232605428978218</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>43</v>
       </c>
@@ -4513,7 +7557,7 @@
         <v>69.895856351786918</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>44</v>
       </c>
@@ -4553,7 +7597,7 @@
         <v>65.446480326130896</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>45</v>
       </c>
@@ -4593,7 +7637,7 @@
         <v>58.089291302096001</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>46</v>
       </c>
@@ -4633,7 +7677,7 @@
         <v>53.3038036353203</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>47</v>
       </c>
@@ -4673,7 +7717,7 @@
         <v>50.310929502405635</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>48</v>
       </c>
@@ -4713,7 +7757,7 @@
         <v>49.938430919413349</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>49</v>
       </c>
@@ -4753,7 +7797,7 @@
         <v>53.775254228293583</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>50</v>
       </c>
@@ -4793,7 +7837,7 @@
         <v>73.000654266028079</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>51</v>
       </c>
@@ -4833,7 +7877,7 @@
         <v>84.514806745059474</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>52</v>
       </c>
@@ -4873,7 +7917,7 @@
         <v>92.478487871594325</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>53</v>
       </c>
@@ -4913,7 +7957,7 @@
         <v>96.093873709027548</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>54</v>
       </c>
@@ -4953,12 +7997,12 @@
         <v>97.23197988363691</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>15</v>
       </c>
@@ -5000,7 +8044,7 @@
         <v>114.08065592305516</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>16</v>
       </c>
@@ -5042,7 +8086,7 @@
         <v>111.08987185721853</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>17</v>
       </c>
@@ -5084,7 +8128,7 @@
         <v>106.5837031480913</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>18</v>
       </c>
@@ -5126,7 +8170,7 @@
         <v>101.70920575031512</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>19</v>
       </c>
@@ -5168,7 +8212,7 @@
         <v>97.345672427697949</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>20</v>
       </c>
@@ -5210,7 +8254,7 @@
         <v>91.944605800660014</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>21</v>
       </c>
@@ -5252,7 +8296,7 @@
         <v>90.315563465396721</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>22</v>
       </c>
@@ -5294,7 +8338,7 @@
         <v>89.485308876336845</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>23</v>
       </c>
@@ -5336,7 +8380,7 @@
         <v>89.075779261749787</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>24</v>
       </c>
@@ -5378,7 +8422,7 @@
         <v>88.900289688592608</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>25</v>
       </c>
@@ -5420,7 +8464,7 @@
         <v>89.255462371377405</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>26</v>
       </c>
@@ -5462,7 +8506,7 @@
         <v>88.138288891926294</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>27</v>
       </c>
@@ -5504,7 +8548,7 @@
         <v>85.927584571830636</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>28</v>
       </c>
@@ -5546,7 +8590,7 @@
         <v>82.621288707882016</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>29</v>
       </c>
@@ -5588,7 +8632,7 @@
         <v>78.351726353470298</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>30</v>
       </c>
@@ -5630,7 +8674,7 @@
         <v>72.375093651635382</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>31</v>
       </c>
@@ -5672,7 +8716,7 @@
         <v>69.270253444635046</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>32</v>
       </c>
@@ -5714,7 +8758,7 @@
         <v>68.059642613386316</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>33</v>
       </c>
@@ -5756,7 +8800,7 @@
         <v>68.869810046047263</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>34</v>
       </c>
@@ -5798,7 +8842,7 @@
         <v>71.841048343395343</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>35</v>
       </c>
@@ -5840,7 +8884,7 @@
         <v>78.566481981196944</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>36</v>
       </c>
@@ -5882,7 +8926,7 @@
         <v>83.225509900905976</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>37</v>
       </c>
@@ -5924,7 +8968,7 @@
         <v>86.50399841208818</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>38</v>
       </c>
@@ -5966,7 +9010,7 @@
         <v>87.923830488670021</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>39</v>
       </c>
@@ -6008,7 +9052,7 @@
         <v>87.222958685772454</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>40</v>
       </c>
@@ -6050,7 +9094,7 @@
         <v>83.499304591236466</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>41</v>
       </c>
@@ -6092,7 +9136,7 @@
         <v>80.259550917272961</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>42</v>
       </c>
@@ -6134,7 +9178,7 @@
         <v>76.671912630694209</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>43</v>
       </c>
@@ -6176,7 +9220,7 @@
         <v>72.512447753341092</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>44</v>
       </c>
@@ -6218,7 +9262,7 @@
         <v>67.367819431529028</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>45</v>
       </c>
@@ -6260,7 +9304,7 @@
         <v>59.264552477787475</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>46</v>
       </c>
@@ -6302,7 +9346,7 @@
         <v>54.024934389863795</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>47</v>
       </c>
@@ -6344,7 +9388,7 @@
         <v>50.95839820731922</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>48</v>
       </c>
@@ -6386,7 +9430,7 @@
         <v>51.214634497136309</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>49</v>
       </c>
@@ -6428,7 +9472,7 @@
         <v>57.415244422451288</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>50</v>
       </c>
@@ -6470,7 +9514,7 @@
         <v>95.041886599693527</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>51</v>
       </c>
@@ -6512,7 +9556,7 @@
         <v>107.39239848110854</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>52</v>
       </c>
@@ -6554,7 +9598,7 @@
         <v>114.70799322788019</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>53</v>
       </c>
@@ -6596,7 +9640,7 @@
         <v>117.13559457227581</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>54</v>
       </c>
@@ -6652,12 +9696,12 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6668,10 +9712,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" s="8">
         <v>15</v>
       </c>
@@ -6682,7 +9726,7 @@
         <v>114.08065592305516</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" s="8">
         <v>16</v>
       </c>
@@ -6693,7 +9737,7 @@
         <v>111.08987185721853</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" s="8">
         <v>17</v>
       </c>
@@ -6704,7 +9748,7 @@
         <v>106.5837031480913</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" s="8">
         <v>18</v>
       </c>
@@ -6715,7 +9759,7 @@
         <v>101.70920575031512</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" s="8">
         <v>19</v>
       </c>
@@ -6726,7 +9770,7 @@
         <v>97.345672427697949</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" s="8">
         <v>20</v>
       </c>
@@ -6737,7 +9781,7 @@
         <v>91.944605800660014</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" s="8">
         <v>21</v>
       </c>
@@ -6748,7 +9792,7 @@
         <v>90.315563465396721</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" s="8">
         <v>22</v>
       </c>
@@ -6759,7 +9803,7 @@
         <v>89.485308876336845</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" s="8">
         <v>23</v>
       </c>
@@ -6770,7 +9814,7 @@
         <v>89.075779261749787</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" s="8">
         <v>24</v>
       </c>
@@ -6781,7 +9825,7 @@
         <v>88.900289688592608</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" s="8">
         <v>25</v>
       </c>
@@ -6792,7 +9836,7 @@
         <v>89.255462371377405</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" s="8">
         <v>26</v>
       </c>
@@ -6803,7 +9847,7 @@
         <v>88.138288891926294</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" s="8">
         <v>27</v>
       </c>
@@ -6814,7 +9858,7 @@
         <v>85.927584571830636</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" s="8">
         <v>28</v>
       </c>
@@ -6825,7 +9869,7 @@
         <v>82.621288707882016</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" s="8">
         <v>29</v>
       </c>
@@ -6836,7 +9880,7 @@
         <v>78.351726353470298</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" s="8">
         <v>30</v>
       </c>
@@ -6847,7 +9891,7 @@
         <v>72.375093651635382</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" s="8">
         <v>31</v>
       </c>
@@ -6858,7 +9902,7 @@
         <v>69.270253444635046</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" s="8">
         <v>32</v>
       </c>
@@ -6869,7 +9913,7 @@
         <v>68.059642613386316</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" s="8">
         <v>33</v>
       </c>
@@ -6880,7 +9924,7 @@
         <v>68.869810046047263</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" s="8">
         <v>34</v>
       </c>
@@ -6891,7 +9935,7 @@
         <v>71.841048343395343</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" s="8">
         <v>35</v>
       </c>
@@ -6902,7 +9946,7 @@
         <v>78.566481981196944</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" s="8">
         <v>36</v>
       </c>
@@ -6913,7 +9957,7 @@
         <v>83.225509900905976</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" s="8">
         <v>37</v>
       </c>
@@ -6924,7 +9968,7 @@
         <v>86.50399841208818</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" s="8">
         <v>38</v>
       </c>
@@ -6935,7 +9979,7 @@
         <v>87.923830488670021</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" s="8">
         <v>39</v>
       </c>
@@ -6946,7 +9990,7 @@
         <v>87.222958685772454</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" s="8">
         <v>40</v>
       </c>
@@ -6957,7 +10001,7 @@
         <v>83.499304591236466</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" s="8">
         <v>41</v>
       </c>
@@ -6968,7 +10012,7 @@
         <v>80.259550917272961</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" s="8">
         <v>42</v>
       </c>
@@ -6979,7 +10023,7 @@
         <v>76.671912630694209</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" s="8">
         <v>43</v>
       </c>
@@ -6990,7 +10034,7 @@
         <v>72.512447753341092</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" s="8">
         <v>44</v>
       </c>
@@ -7001,7 +10045,7 @@
         <v>67.367819431529028</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" s="8">
         <v>45</v>
       </c>
@@ -7012,7 +10056,7 @@
         <v>59.264552477787475</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" s="8">
         <v>46</v>
       </c>
@@ -7023,7 +10067,7 @@
         <v>54.024934389863795</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" s="8">
         <v>47</v>
       </c>
@@ -7034,7 +10078,7 @@
         <v>50.95839820731922</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" s="8">
         <v>48</v>
       </c>
@@ -7045,7 +10089,7 @@
         <v>51.214634497136309</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3">
       <c r="A37" s="8">
         <v>49</v>
       </c>
@@ -7056,7 +10100,7 @@
         <v>57.415244422451288</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3">
       <c r="A38" s="8">
         <v>50</v>
       </c>
@@ -7067,7 +10111,7 @@
         <v>95.041886599693527</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3">
       <c r="A39" s="8">
         <v>51</v>
       </c>
@@ -7078,7 +10122,7 @@
         <v>107.39239848110854</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3">
       <c r="A40" s="8">
         <v>52</v>
       </c>
@@ -7089,7 +10133,7 @@
         <v>114.70799322788019</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3">
       <c r="A41" s="8">
         <v>53</v>
       </c>
@@ -7100,7 +10144,7 @@
         <v>117.13559457227581</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3">
       <c r="A42" s="8">
         <v>54</v>
       </c>
@@ -7113,6 +10157,2236 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE28AAE1-AC32-436F-9053-337B08483A39}">
+  <dimension ref="A1:Q54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ31" sqref="AJ31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1927</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1928</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1929</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <v>1936</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1937</v>
+      </c>
+      <c r="J4" s="14">
+        <v>1938</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1939</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9">
+        <v>37.4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>45.8</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <f>AVERAGE(B5:D5)</f>
+        <v>38.966666666666661</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>42.7</v>
+      </c>
+      <c r="I5" s="9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J5" s="9">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K5" s="9">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M5" s="9">
+        <f>AVERAGE(I5:J5)</f>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="N5" s="9">
+        <f>AVERAGE(H5:K5)</f>
+        <v>36.825000000000003</v>
+      </c>
+      <c r="P5" s="9">
+        <f>100*M5/F5</f>
+        <v>89.050470487596257</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>100*N5/F5</f>
+        <v>94.50384944396923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9">
+        <v>235.8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>248.4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>224</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <f t="shared" ref="F6:F12" si="0">AVERAGE(B6:D6)</f>
+        <v>236.06666666666669</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>184.9</v>
+      </c>
+      <c r="I6" s="9">
+        <v>207.9</v>
+      </c>
+      <c r="J6" s="9">
+        <v>197.7</v>
+      </c>
+      <c r="K6" s="9">
+        <v>199.1</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" ref="M6:M12" si="1">AVERAGE(I6:J6)</f>
+        <v>202.8</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" ref="N6:N12" si="2">AVERAGE(H6:K6)</f>
+        <v>197.4</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" ref="P6:P12" si="3">100*M6/F6</f>
+        <v>85.907935611409201</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" ref="Q6:Q12" si="4">100*N6/F6</f>
+        <v>83.620446201637947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="C7" s="9">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="D7" s="9">
+        <v>294.5</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>303.59999999999997</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>213.9</v>
+      </c>
+      <c r="I7" s="9">
+        <v>243.4</v>
+      </c>
+      <c r="J7" s="9">
+        <v>259.7</v>
+      </c>
+      <c r="K7" s="9">
+        <v>241.7</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>251.55</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="2"/>
+        <v>239.67500000000001</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="3"/>
+        <v>82.855731225296452</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="4"/>
+        <v>78.944334650856405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="9">
+        <v>323.5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>295.7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>257</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>292.06666666666666</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>172.5</v>
+      </c>
+      <c r="I8" s="9">
+        <v>206.3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>195.8</v>
+      </c>
+      <c r="K8" s="9">
+        <v>195.7</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="1"/>
+        <v>201.05</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="2"/>
+        <v>192.57499999999999</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="3"/>
+        <v>68.837023510614017</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="4"/>
+        <v>65.935288746861445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9">
+        <v>210.8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>221.1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>215.3</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>215.73333333333335</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I9" s="9">
+        <v>176.9</v>
+      </c>
+      <c r="J9" s="9">
+        <v>162.9</v>
+      </c>
+      <c r="K9" s="9">
+        <v>160.9</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>169.9</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="2"/>
+        <v>165.97499999999999</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="3"/>
+        <v>78.754635352286769</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="4"/>
+        <v>76.935259579728054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="C10" s="9">
+        <v>138.9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>134.5</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>138.56666666666669</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>90.4</v>
+      </c>
+      <c r="I10" s="9">
+        <v>100.6</v>
+      </c>
+      <c r="J10" s="9">
+        <v>106.6</v>
+      </c>
+      <c r="K10" s="9">
+        <v>108</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>103.6</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="2"/>
+        <v>101.4</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="3"/>
+        <v>74.7654558575896</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="4"/>
+        <v>73.177772432042332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9">
+        <v>41.9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>64.5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>64.8</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>57.066666666666663</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>34.1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>31.1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>29.4</v>
+      </c>
+      <c r="K11" s="9">
+        <v>28</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>30.25</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="2"/>
+        <v>30.65</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="3"/>
+        <v>53.008177570093459</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="4"/>
+        <v>53.709112149532714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="9">
+        <v>18.8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>10.500000000000002</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>9.1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J12" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="K12" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="2"/>
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="3"/>
+        <v>91.428571428571416</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="4"/>
+        <v>85.476190476190467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15">
+      <c r="A14" s="13"/>
+      <c r="O14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="O15">
+        <v>15</v>
+      </c>
+      <c r="P15" s="9">
+        <f>P5</f>
+        <v>89.050470487596257</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>Q5</f>
+        <v>94.50384944396923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="O16">
+        <f>O15+1</f>
+        <v>16</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" ref="P16:Q19" si="5">P15</f>
+        <v>89.050470487596257</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="5"/>
+        <v>94.50384944396923</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17">
+      <c r="O17">
+        <f t="shared" ref="O17:O54" si="6">O16+1</f>
+        <v>17</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="5"/>
+        <v>89.050470487596257</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="5"/>
+        <v>94.50384944396923</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17">
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="5"/>
+        <v>89.050470487596257</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="5"/>
+        <v>94.50384944396923</v>
+      </c>
+    </row>
+    <row r="19" spans="15:17">
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="5"/>
+        <v>89.050470487596257</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="5"/>
+        <v>94.50384944396923</v>
+      </c>
+    </row>
+    <row r="20" spans="15:17">
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="P20" s="9">
+        <f>P6</f>
+        <v>85.907935611409201</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>Q6</f>
+        <v>83.620446201637947</v>
+      </c>
+    </row>
+    <row r="21" spans="15:17">
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" ref="P21:Q24" si="7">P20</f>
+        <v>85.907935611409201</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="7"/>
+        <v>83.620446201637947</v>
+      </c>
+    </row>
+    <row r="22" spans="15:17">
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="7"/>
+        <v>85.907935611409201</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="7"/>
+        <v>83.620446201637947</v>
+      </c>
+    </row>
+    <row r="23" spans="15:17">
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="7"/>
+        <v>85.907935611409201</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="7"/>
+        <v>83.620446201637947</v>
+      </c>
+    </row>
+    <row r="24" spans="15:17">
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="7"/>
+        <v>85.907935611409201</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="7"/>
+        <v>83.620446201637947</v>
+      </c>
+    </row>
+    <row r="25" spans="15:17">
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="P25" s="9">
+        <f>P7</f>
+        <v>82.855731225296452</v>
+      </c>
+      <c r="Q25" s="9">
+        <f>Q7</f>
+        <v>78.944334650856405</v>
+      </c>
+    </row>
+    <row r="26" spans="15:17">
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" ref="P26:Q29" si="8">P25</f>
+        <v>82.855731225296452</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="8"/>
+        <v>78.944334650856405</v>
+      </c>
+    </row>
+    <row r="27" spans="15:17">
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="8"/>
+        <v>82.855731225296452</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="8"/>
+        <v>78.944334650856405</v>
+      </c>
+    </row>
+    <row r="28" spans="15:17">
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="8"/>
+        <v>82.855731225296452</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="8"/>
+        <v>78.944334650856405</v>
+      </c>
+    </row>
+    <row r="29" spans="15:17">
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="8"/>
+        <v>82.855731225296452</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="8"/>
+        <v>78.944334650856405</v>
+      </c>
+    </row>
+    <row r="30" spans="15:17">
+      <c r="O30">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="P30" s="9">
+        <f>P8</f>
+        <v>68.837023510614017</v>
+      </c>
+      <c r="Q30" s="9">
+        <f>Q8</f>
+        <v>65.935288746861445</v>
+      </c>
+    </row>
+    <row r="31" spans="15:17">
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" ref="P31:Q34" si="9">P30</f>
+        <v>68.837023510614017</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="9"/>
+        <v>65.935288746861445</v>
+      </c>
+    </row>
+    <row r="32" spans="15:17">
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="9"/>
+        <v>68.837023510614017</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="9"/>
+        <v>65.935288746861445</v>
+      </c>
+    </row>
+    <row r="33" spans="15:17">
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="9"/>
+        <v>68.837023510614017</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="9"/>
+        <v>65.935288746861445</v>
+      </c>
+    </row>
+    <row r="34" spans="15:17">
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="9"/>
+        <v>68.837023510614017</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="9"/>
+        <v>65.935288746861445</v>
+      </c>
+    </row>
+    <row r="35" spans="15:17">
+      <c r="O35">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="P35" s="9">
+        <f>P9</f>
+        <v>78.754635352286769</v>
+      </c>
+      <c r="Q35" s="9">
+        <f>Q9</f>
+        <v>76.935259579728054</v>
+      </c>
+    </row>
+    <row r="36" spans="15:17">
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" ref="P36:Q39" si="10">P35</f>
+        <v>78.754635352286769</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="10"/>
+        <v>76.935259579728054</v>
+      </c>
+    </row>
+    <row r="37" spans="15:17">
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" si="10"/>
+        <v>78.754635352286769</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="10"/>
+        <v>76.935259579728054</v>
+      </c>
+    </row>
+    <row r="38" spans="15:17">
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="P38" s="9">
+        <f t="shared" si="10"/>
+        <v>78.754635352286769</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="10"/>
+        <v>76.935259579728054</v>
+      </c>
+    </row>
+    <row r="39" spans="15:17">
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" si="10"/>
+        <v>78.754635352286769</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="10"/>
+        <v>76.935259579728054</v>
+      </c>
+    </row>
+    <row r="40" spans="15:17">
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="P40" s="9">
+        <f>P10</f>
+        <v>74.7654558575896</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>Q10</f>
+        <v>73.177772432042332</v>
+      </c>
+    </row>
+    <row r="41" spans="15:17">
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" ref="P41:Q44" si="11">P40</f>
+        <v>74.7654558575896</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="11"/>
+        <v>73.177772432042332</v>
+      </c>
+    </row>
+    <row r="42" spans="15:17">
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" si="11"/>
+        <v>74.7654558575896</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="11"/>
+        <v>73.177772432042332</v>
+      </c>
+    </row>
+    <row r="43" spans="15:17">
+      <c r="O43">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="P43" s="9">
+        <f t="shared" si="11"/>
+        <v>74.7654558575896</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="11"/>
+        <v>73.177772432042332</v>
+      </c>
+    </row>
+    <row r="44" spans="15:17">
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" si="11"/>
+        <v>74.7654558575896</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="11"/>
+        <v>73.177772432042332</v>
+      </c>
+    </row>
+    <row r="45" spans="15:17">
+      <c r="O45">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="P45" s="9">
+        <f>P11</f>
+        <v>53.008177570093459</v>
+      </c>
+      <c r="Q45" s="9">
+        <f>Q11</f>
+        <v>53.709112149532714</v>
+      </c>
+    </row>
+    <row r="46" spans="15:17">
+      <c r="O46">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="P46" s="9">
+        <f t="shared" ref="P46:Q49" si="12">P45</f>
+        <v>53.008177570093459</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" si="12"/>
+        <v>53.709112149532714</v>
+      </c>
+    </row>
+    <row r="47" spans="15:17">
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="P47" s="9">
+        <f t="shared" si="12"/>
+        <v>53.008177570093459</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" si="12"/>
+        <v>53.709112149532714</v>
+      </c>
+    </row>
+    <row r="48" spans="15:17">
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="P48" s="9">
+        <f t="shared" si="12"/>
+        <v>53.008177570093459</v>
+      </c>
+      <c r="Q48" s="9">
+        <f t="shared" si="12"/>
+        <v>53.709112149532714</v>
+      </c>
+    </row>
+    <row r="49" spans="15:17">
+      <c r="O49">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="12"/>
+        <v>53.008177570093459</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" si="12"/>
+        <v>53.709112149532714</v>
+      </c>
+    </row>
+    <row r="50" spans="15:17">
+      <c r="O50">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="P50" s="9">
+        <f>P12</f>
+        <v>91.428571428571416</v>
+      </c>
+      <c r="Q50" s="9">
+        <f>Q12</f>
+        <v>85.476190476190467</v>
+      </c>
+    </row>
+    <row r="51" spans="15:17">
+      <c r="O51">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="P51" s="9">
+        <f t="shared" ref="P51:Q54" si="13">P50</f>
+        <v>91.428571428571416</v>
+      </c>
+      <c r="Q51" s="9">
+        <f t="shared" si="13"/>
+        <v>85.476190476190467</v>
+      </c>
+    </row>
+    <row r="52" spans="15:17">
+      <c r="O52">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="P52" s="9">
+        <f t="shared" si="13"/>
+        <v>91.428571428571416</v>
+      </c>
+      <c r="Q52" s="9">
+        <f t="shared" si="13"/>
+        <v>85.476190476190467</v>
+      </c>
+    </row>
+    <row r="53" spans="15:17">
+      <c r="O53">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="P53" s="9">
+        <f t="shared" si="13"/>
+        <v>91.428571428571416</v>
+      </c>
+      <c r="Q53" s="9">
+        <f t="shared" si="13"/>
+        <v>85.476190476190467</v>
+      </c>
+    </row>
+    <row r="54" spans="15:17">
+      <c r="O54">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="P54" s="9">
+        <f t="shared" si="13"/>
+        <v>91.428571428571416</v>
+      </c>
+      <c r="Q54" s="9">
+        <f t="shared" si="13"/>
+        <v>85.476190476190467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="M5:M13" formulaRange="1"/>
+    <ignoredError sqref="P20:P50 Q20:Q50" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526F1247-5F0D-44BB-8323-04EA2E4FC803}">
+  <dimension ref="A1:Q96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X59" sqref="X59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15">
+      <c r="A4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1927</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1928</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1929</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
+        <v>1936</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1937</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1938</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1939</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9">
+        <v>39.5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D5" s="9">
+        <v>46.6</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <f>AVERAGE(B5:D5)</f>
+        <v>41.300000000000004</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>53.4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>36.6</v>
+      </c>
+      <c r="J5" s="9">
+        <v>41.2</v>
+      </c>
+      <c r="K5" s="9">
+        <v>38.4</v>
+      </c>
+      <c r="M5" s="9">
+        <f>AVERAGE(I5:J5)</f>
+        <v>38.900000000000006</v>
+      </c>
+      <c r="N5" s="9">
+        <f>AVERAGE(H5:K5)</f>
+        <v>42.4</v>
+      </c>
+      <c r="P5" s="9">
+        <f>100*M5/F5</f>
+        <v>94.188861985472158</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>100*N5/F5</f>
+        <v>102.66343825665858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9">
+        <v>248.8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>278.8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>227.8</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <f t="shared" ref="F6:F12" si="0">AVERAGE(B6:D6)</f>
+        <v>251.80000000000004</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>231.3</v>
+      </c>
+      <c r="I6" s="9">
+        <v>226.3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>228.2</v>
+      </c>
+      <c r="K6" s="9">
+        <v>217.6</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" ref="M6:M12" si="1">AVERAGE(I6:J6)</f>
+        <v>227.25</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" ref="N6:N12" si="2">AVERAGE(H6:K6)</f>
+        <v>225.85</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" ref="P6:P12" si="3">100*M6/F6</f>
+        <v>90.250198570293875</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" ref="Q6:Q12" si="4">100*N6/F6</f>
+        <v>89.694201747418575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9">
+        <v>337.5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>332.6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>299.39999999999998</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>323.16666666666669</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="I7" s="9">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="J7" s="9">
+        <v>299.7</v>
+      </c>
+      <c r="K7" s="9">
+        <v>264.10000000000002</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>282.39999999999998</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="2"/>
+        <v>274.125</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="3"/>
+        <v>87.385250128932427</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="4"/>
+        <v>84.824651882413605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="9">
+        <v>341.3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>331.9</v>
+      </c>
+      <c r="D8" s="9">
+        <v>261.3</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>311.5</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>208</v>
+      </c>
+      <c r="I8" s="9">
+        <v>224.7</v>
+      </c>
+      <c r="J8" s="9">
+        <v>220.8</v>
+      </c>
+      <c r="K8" s="9">
+        <v>219.6</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="1"/>
+        <v>222.75</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="2"/>
+        <v>218.27500000000001</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="3"/>
+        <v>71.50882825040128</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="4"/>
+        <v>70.072231139646874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9">
+        <v>222.4</v>
+      </c>
+      <c r="C9" s="9">
+        <v>248.1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>205.8</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>225.43333333333331</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>204.2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>192.6</v>
+      </c>
+      <c r="J9" s="9">
+        <v>188</v>
+      </c>
+      <c r="K9" s="9">
+        <v>175.8</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>190.3</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="2"/>
+        <v>190.14999999999998</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="3"/>
+        <v>84.415200354872113</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="4"/>
+        <v>84.348661836463094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9">
+        <v>150.1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>146.9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>154.6</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>150.53333333333333</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>101.9</v>
+      </c>
+      <c r="I10" s="9">
+        <v>116</v>
+      </c>
+      <c r="J10" s="9">
+        <v>120.7</v>
+      </c>
+      <c r="K10" s="9">
+        <v>124.7</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>118.35</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="2"/>
+        <v>115.825</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="3"/>
+        <v>78.62046058458813</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="4"/>
+        <v>76.94309123117803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44.2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>91.6</v>
+      </c>
+      <c r="D11" s="9">
+        <v>53.7</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>63.166666666666664</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I11" s="9">
+        <v>38.5</v>
+      </c>
+      <c r="J11" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="K11" s="9">
+        <v>37</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="2"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="3"/>
+        <v>53.034300791556731</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="4"/>
+        <v>54.934036939313991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="9">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>10.8</v>
+      </c>
+      <c r="I12" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J12" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="K12" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="2"/>
+        <v>10.125</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="3"/>
+        <v>124.46808510638297</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="4"/>
+        <v>107.71276595744681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15">
+      <c r="A14" s="11"/>
+      <c r="O14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="O15">
+        <v>15</v>
+      </c>
+      <c r="P15" s="9">
+        <f>P5</f>
+        <v>94.188861985472158</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>Q5</f>
+        <v>102.66343825665858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="O16">
+        <f>O15+1</f>
+        <v>16</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" ref="P16:Q19" si="5">P15</f>
+        <v>94.188861985472158</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="5"/>
+        <v>102.66343825665858</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17">
+      <c r="O17">
+        <f t="shared" ref="O17:O54" si="6">O16+1</f>
+        <v>17</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="5"/>
+        <v>94.188861985472158</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="5"/>
+        <v>102.66343825665858</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17">
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="5"/>
+        <v>94.188861985472158</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="5"/>
+        <v>102.66343825665858</v>
+      </c>
+    </row>
+    <row r="19" spans="15:17">
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="5"/>
+        <v>94.188861985472158</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="5"/>
+        <v>102.66343825665858</v>
+      </c>
+    </row>
+    <row r="20" spans="15:17">
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="P20" s="9">
+        <f>P6</f>
+        <v>90.250198570293875</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>Q6</f>
+        <v>89.694201747418575</v>
+      </c>
+    </row>
+    <row r="21" spans="15:17">
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" ref="P21:Q24" si="7">P20</f>
+        <v>90.250198570293875</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="7"/>
+        <v>89.694201747418575</v>
+      </c>
+    </row>
+    <row r="22" spans="15:17">
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="7"/>
+        <v>90.250198570293875</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="7"/>
+        <v>89.694201747418575</v>
+      </c>
+    </row>
+    <row r="23" spans="15:17">
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="7"/>
+        <v>90.250198570293875</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="7"/>
+        <v>89.694201747418575</v>
+      </c>
+    </row>
+    <row r="24" spans="15:17">
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="7"/>
+        <v>90.250198570293875</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="7"/>
+        <v>89.694201747418575</v>
+      </c>
+    </row>
+    <row r="25" spans="15:17">
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="P25" s="9">
+        <f>P7</f>
+        <v>87.385250128932427</v>
+      </c>
+      <c r="Q25" s="9">
+        <f>Q7</f>
+        <v>84.824651882413605</v>
+      </c>
+    </row>
+    <row r="26" spans="15:17">
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" ref="P26:Q29" si="8">P25</f>
+        <v>87.385250128932427</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="8"/>
+        <v>84.824651882413605</v>
+      </c>
+    </row>
+    <row r="27" spans="15:17">
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="8"/>
+        <v>87.385250128932427</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="8"/>
+        <v>84.824651882413605</v>
+      </c>
+    </row>
+    <row r="28" spans="15:17">
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="8"/>
+        <v>87.385250128932427</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="8"/>
+        <v>84.824651882413605</v>
+      </c>
+    </row>
+    <row r="29" spans="15:17">
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="8"/>
+        <v>87.385250128932427</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="8"/>
+        <v>84.824651882413605</v>
+      </c>
+    </row>
+    <row r="30" spans="15:17">
+      <c r="O30">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="P30" s="9">
+        <f>P8</f>
+        <v>71.50882825040128</v>
+      </c>
+      <c r="Q30" s="9">
+        <f>Q8</f>
+        <v>70.072231139646874</v>
+      </c>
+    </row>
+    <row r="31" spans="15:17">
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" ref="P31:Q34" si="9">P30</f>
+        <v>71.50882825040128</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="9"/>
+        <v>70.072231139646874</v>
+      </c>
+    </row>
+    <row r="32" spans="15:17">
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="9"/>
+        <v>71.50882825040128</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="9"/>
+        <v>70.072231139646874</v>
+      </c>
+    </row>
+    <row r="33" spans="15:17">
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="9"/>
+        <v>71.50882825040128</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="9"/>
+        <v>70.072231139646874</v>
+      </c>
+    </row>
+    <row r="34" spans="15:17">
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="9"/>
+        <v>71.50882825040128</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="9"/>
+        <v>70.072231139646874</v>
+      </c>
+    </row>
+    <row r="35" spans="15:17">
+      <c r="O35">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="P35" s="9">
+        <f>P9</f>
+        <v>84.415200354872113</v>
+      </c>
+      <c r="Q35" s="9">
+        <f>Q9</f>
+        <v>84.348661836463094</v>
+      </c>
+    </row>
+    <row r="36" spans="15:17">
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" ref="P36:Q39" si="10">P35</f>
+        <v>84.415200354872113</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="10"/>
+        <v>84.348661836463094</v>
+      </c>
+    </row>
+    <row r="37" spans="15:17">
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" si="10"/>
+        <v>84.415200354872113</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="10"/>
+        <v>84.348661836463094</v>
+      </c>
+    </row>
+    <row r="38" spans="15:17">
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="P38" s="9">
+        <f t="shared" si="10"/>
+        <v>84.415200354872113</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="10"/>
+        <v>84.348661836463094</v>
+      </c>
+    </row>
+    <row r="39" spans="15:17">
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" si="10"/>
+        <v>84.415200354872113</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="10"/>
+        <v>84.348661836463094</v>
+      </c>
+    </row>
+    <row r="40" spans="15:17">
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="P40" s="9">
+        <f>P10</f>
+        <v>78.62046058458813</v>
+      </c>
+      <c r="Q40" s="9">
+        <f>Q10</f>
+        <v>76.94309123117803</v>
+      </c>
+    </row>
+    <row r="41" spans="15:17">
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" ref="P41:Q44" si="11">P40</f>
+        <v>78.62046058458813</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="11"/>
+        <v>76.94309123117803</v>
+      </c>
+    </row>
+    <row r="42" spans="15:17">
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" si="11"/>
+        <v>78.62046058458813</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="11"/>
+        <v>76.94309123117803</v>
+      </c>
+    </row>
+    <row r="43" spans="15:17">
+      <c r="O43">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="P43" s="9">
+        <f t="shared" si="11"/>
+        <v>78.62046058458813</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="11"/>
+        <v>76.94309123117803</v>
+      </c>
+    </row>
+    <row r="44" spans="15:17">
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" si="11"/>
+        <v>78.62046058458813</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="11"/>
+        <v>76.94309123117803</v>
+      </c>
+    </row>
+    <row r="45" spans="15:17">
+      <c r="O45">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="P45" s="9">
+        <f>P11</f>
+        <v>53.034300791556731</v>
+      </c>
+      <c r="Q45" s="9">
+        <f>Q11</f>
+        <v>54.934036939313991</v>
+      </c>
+    </row>
+    <row r="46" spans="15:17">
+      <c r="O46">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="P46" s="9">
+        <f t="shared" ref="P46:Q49" si="12">P45</f>
+        <v>53.034300791556731</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" si="12"/>
+        <v>54.934036939313991</v>
+      </c>
+    </row>
+    <row r="47" spans="15:17">
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="P47" s="9">
+        <f t="shared" si="12"/>
+        <v>53.034300791556731</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" si="12"/>
+        <v>54.934036939313991</v>
+      </c>
+    </row>
+    <row r="48" spans="15:17">
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="P48" s="9">
+        <f t="shared" si="12"/>
+        <v>53.034300791556731</v>
+      </c>
+      <c r="Q48" s="9">
+        <f t="shared" si="12"/>
+        <v>54.934036939313991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="O49">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="12"/>
+        <v>53.034300791556731</v>
+      </c>
+      <c r="Q49" s="9">
+        <f t="shared" si="12"/>
+        <v>54.934036939313991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="O50">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="P50" s="9">
+        <f>P12</f>
+        <v>124.46808510638297</v>
+      </c>
+      <c r="Q50" s="9">
+        <f>Q12</f>
+        <v>107.71276595744681</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="O51">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="P51" s="9">
+        <f t="shared" ref="P51:Q54" si="13">P50</f>
+        <v>124.46808510638297</v>
+      </c>
+      <c r="Q51" s="9">
+        <f t="shared" si="13"/>
+        <v>107.71276595744681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="O52">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="P52" s="9">
+        <f t="shared" si="13"/>
+        <v>124.46808510638297</v>
+      </c>
+      <c r="Q52" s="9">
+        <f t="shared" si="13"/>
+        <v>107.71276595744681</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="O53">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="P53" s="9">
+        <f t="shared" si="13"/>
+        <v>124.46808510638297</v>
+      </c>
+      <c r="Q53" s="9">
+        <f t="shared" si="13"/>
+        <v>107.71276595744681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="O54">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="P54" s="9">
+        <f t="shared" si="13"/>
+        <v>124.46808510638297</v>
+      </c>
+      <c r="Q54" s="9">
+        <f t="shared" si="13"/>
+        <v>107.71276595744681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="10"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M5:M12" formulaRange="1"/>
+    <ignoredError sqref="P20:P50 Q20:Q50" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
